--- a/results/test3/raw_outputs/perplexity_outputs.xlsx
+++ b/results/test3/raw_outputs/perplexity_outputs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,7 +478,7 @@
         <v>100612</v>
       </c>
       <c r="E2" t="n">
-        <v>560</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3">
@@ -499,7 +499,7 @@
         <v>27697</v>
       </c>
       <c r="E3" t="n">
-        <v>1096</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4">
@@ -520,13 +520,13 @@
         <v>44742</v>
       </c>
       <c r="E4" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cand_22_cv_00105</t>
+          <t>cand_22_cv_02094</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -538,16 +538,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>39885</v>
+        <v>76610</v>
       </c>
       <c r="E5" t="n">
-        <v>509</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cand_22_cv_02094</t>
+          <t>cand_23_cv_02560</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -559,16 +559,16 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>76610</v>
+        <v>67486</v>
       </c>
       <c r="E6" t="n">
-        <v>450</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cand_23_cv_02560</t>
+          <t>cand_23_cv_03518</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -580,16 +580,16 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>67486</v>
+        <v>32067</v>
       </c>
       <c r="E7" t="n">
-        <v>1550</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cand_23_cv_03518</t>
+          <t>cand_24_cv_03170</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,16 +601,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>32067</v>
+        <v>25448</v>
       </c>
       <c r="E8" t="n">
-        <v>651</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cand_24_cv_03170</t>
+          <t>cand_24_cv_04196</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -622,16 +622,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>25448</v>
+        <v>11903</v>
       </c>
       <c r="E9" t="n">
-        <v>661</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cand_24_cv_04196</t>
+          <t>cand_3_22-cv-00956</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -643,16 +643,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>11903</v>
+        <v>20671</v>
       </c>
       <c r="E10" t="n">
-        <v>401</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cand_3_21-cv-09767</t>
+          <t>casd_3_23-cv-01216</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>30065</v>
+        <v>34233</v>
       </c>
       <c r="E11" t="n">
-        <v>238</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cand_3_22-cv-00956</t>
+          <t>ctd-3-23-cv-01035</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -685,16 +685,16 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>20671</v>
+        <v>63448</v>
       </c>
       <c r="E12" t="n">
-        <v>800</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>casd_3_23-cv-01216</t>
+          <t>dcd-1_23-cv-02055</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -706,16 +706,16 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>34233</v>
+        <v>37155</v>
       </c>
       <c r="E13" t="n">
-        <v>1094</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ctd-3_24-cv-01727</t>
+          <t>dde_ 23_cv_1466</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -727,16 +727,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>12105</v>
+        <v>34469</v>
       </c>
       <c r="E14" t="n">
-        <v>1063</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dcd-1_23-cv-01599</t>
+          <t>dde_21_cv_55</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -748,16 +748,16 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>52447</v>
+        <v>45100</v>
       </c>
       <c r="E15" t="n">
-        <v>1105</v>
+        <v>818</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dcd-1_23-cv-02055</t>
+          <t>flsd-1_23-cv-23139</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -769,16 +769,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>37155</v>
+        <v>16270</v>
       </c>
       <c r="E16" t="n">
-        <v>1952</v>
+        <v>839</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dde_ 23_cv_1466</t>
+          <t>ilnd-1-21-cv-04349</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -790,16 +790,16 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>34469</v>
+        <v>31039</v>
       </c>
       <c r="E17" t="n">
-        <v>1268</v>
+        <v>726</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dde_21_cv_55</t>
+          <t>mad-1-21-cv-10933</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -811,16 +811,16 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>45100</v>
+        <v>16693</v>
       </c>
       <c r="E18" t="n">
-        <v>459</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>flsd-1_23-cv-23139</t>
+          <t>mied-4-23-cv-13132</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -832,16 +832,16 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>16270</v>
+        <v>64927</v>
       </c>
       <c r="E19" t="n">
-        <v>914</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ilnd-1_20_cv_05593</t>
+          <t>nysd_20_cv_04494</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>25569</v>
+        <v>51071</v>
       </c>
       <c r="E20" t="n">
-        <v>1094</v>
+        <v>953</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nysd_1_21-cv-11222</t>
+          <t>nysd_22-cv-07111</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -874,16 +874,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>11133</v>
+        <v>27485</v>
       </c>
       <c r="E21" t="n">
-        <v>643</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nysd_20_cv_04494</t>
+          <t>nysd_22_cv_10292</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -895,16 +895,16 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>51071</v>
+        <v>24365</v>
       </c>
       <c r="E22" t="n">
-        <v>752</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nysd_22_cv_10292</t>
+          <t>nysd_23_cv_9476</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -916,16 +916,16 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>24365</v>
+        <v>16202</v>
       </c>
       <c r="E23" t="n">
-        <v>455</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nysd_23_cv_9476</t>
+          <t>nysd_24_cv_310</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -937,16 +937,16 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>16202</v>
+        <v>43721</v>
       </c>
       <c r="E24" t="n">
-        <v>418</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nysd_24_cv_310</t>
+          <t>txnd-4_24-cv-00673</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -958,16 +958,16 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>43721</v>
+        <v>55525</v>
       </c>
       <c r="E25" t="n">
-        <v>1633</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>txnd-4_24-cv-00673</t>
+          <t>txsd-4-21-cv-02473</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -979,10 +979,10 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>55525</v>
+        <v>67106</v>
       </c>
       <c r="E26" t="n">
-        <v>1037</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
